--- a/Assets/QuickSheet/ExcelSheet/MechPartSheet.xlsx
+++ b/Assets/QuickSheet/ExcelSheet/MechPartSheet.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990"/>
+    <workbookView windowWidth="28695" windowHeight="12990" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MechPartSheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>Name</t>
   </si>
@@ -88,7 +89,7 @@
     <t>HDJ606</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jaywalker</t>
+    <t>Jaywalker</t>
   </si>
   <si>
     <t>Light</t>
@@ -97,19 +98,19 @@
     <t>HDM709</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hellfire</t>
+    <t>Hellfire</t>
   </si>
   <si>
     <t>HDS707</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spazmok</t>
+    <t>Spazmok</t>
   </si>
   <si>
     <t>HDM806</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ballistika</t>
+    <t>Ballistika</t>
   </si>
   <si>
     <t>Standard</t>
@@ -118,31 +119,31 @@
     <t>HDM402</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mekhi</t>
+    <t>Mekhi</t>
   </si>
   <si>
     <t>HDS308</t>
   </si>
   <si>
-    <t xml:space="preserve"> Frontliner</t>
+    <t>Frontliner</t>
   </si>
   <si>
     <t>HDS003</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rushnik</t>
+    <t>Rushnik</t>
   </si>
   <si>
     <t>HDM002</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trooper</t>
+    <t>Trooper</t>
   </si>
   <si>
     <t>HDH004</t>
   </si>
   <si>
-    <t xml:space="preserve"> Boomrocker</t>
+    <t>Boomrocker</t>
   </si>
   <si>
     <t>Heavy</t>
@@ -151,43 +152,43 @@
     <t>HDS008</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stallion</t>
+    <t>Stallion</t>
   </si>
   <si>
     <t>HDM007</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stark</t>
+    <t>Stark</t>
   </si>
   <si>
     <t>HDH009</t>
   </si>
   <si>
-    <t xml:space="preserve"> Haskell</t>
+    <t>Haskell</t>
   </si>
   <si>
     <t>HDS107</t>
   </si>
   <si>
-    <t xml:space="preserve"> Scootwing</t>
+    <t>Scootwing</t>
   </si>
   <si>
     <t>HDM505</t>
   </si>
   <si>
-    <t xml:space="preserve"> Davenstar</t>
+    <t>Davenstar</t>
   </si>
   <si>
     <t>HDM803</t>
   </si>
   <si>
-    <t xml:space="preserve"> Zeeker</t>
+    <t>Zeeker</t>
   </si>
   <si>
     <t>HDH701</t>
   </si>
   <si>
-    <t xml:space="preserve"> Blitzker</t>
+    <t>Blitzker</t>
   </si>
   <si>
     <t>HDP010</t>
@@ -199,198 +200,159 @@
     <t>HDH802</t>
   </si>
   <si>
+    <t>HellbentButcher</t>
+  </si>
+  <si>
+    <t>HDW201</t>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>HDS808</t>
+  </si>
+  <si>
+    <t>Aerobolt</t>
+  </si>
+  <si>
+    <t>HDM809</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>HDH810</t>
+  </si>
+  <si>
+    <t>Sidewinder</t>
+  </si>
+  <si>
+    <t>HGM001</t>
+  </si>
+  <si>
+    <t>GameMaster</t>
+  </si>
+  <si>
+    <t>HDM819</t>
+  </si>
+  <si>
+    <t>Vindicator</t>
+  </si>
+  <si>
+    <t>HDH820</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>HDS818</t>
+  </si>
+  <si>
+    <t>Centurion</t>
+  </si>
+  <si>
+    <t>HGS001</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
+  </si>
+  <si>
+    <t>HSM002</t>
+  </si>
+  <si>
+    <t>Sting X</t>
+  </si>
+  <si>
+    <t>HGH003</t>
+  </si>
+  <si>
+    <t>Aerene</t>
+  </si>
+  <si>
+    <t>HSS001</t>
+  </si>
+  <si>
+    <t>Gamma Ray</t>
+  </si>
+  <si>
+    <t>HGM002</t>
+  </si>
+  <si>
+    <t>Luciferiel</t>
+  </si>
+  <si>
+    <t>HSH003</t>
+  </si>
+  <si>
+    <t>Big Mammoth</t>
+  </si>
+  <si>
+    <t>CEJ606</t>
+  </si>
+  <si>
+    <t>CEM709</t>
+  </si>
+  <si>
+    <t>CES707</t>
+  </si>
+  <si>
+    <t>CEM806</t>
+  </si>
+  <si>
+    <t>CEM412</t>
+  </si>
+  <si>
+    <t>CES301</t>
+  </si>
+  <si>
+    <t>CES003</t>
+  </si>
+  <si>
+    <t>CNM002</t>
+  </si>
+  <si>
+    <t>CEH007</t>
+  </si>
+  <si>
+    <t>CES008</t>
+  </si>
+  <si>
+    <t>CNM007</t>
+  </si>
+  <si>
+    <t>CEH009</t>
+  </si>
+  <si>
+    <t>CES103</t>
+  </si>
+  <si>
+    <t>CEM571</t>
+  </si>
+  <si>
+    <t>CEM803</t>
+  </si>
+  <si>
+    <t>CEH737</t>
+  </si>
+  <si>
+    <t>CEH807</t>
+  </si>
+  <si>
     <t>Hellbent Butcher</t>
   </si>
   <si>
-    <t>HDW201</t>
-  </si>
-  <si>
-    <t>Bastion</t>
-  </si>
-  <si>
-    <t>HDS808</t>
-  </si>
-  <si>
-    <t>Aerobolt</t>
-  </si>
-  <si>
-    <t>HDH810</t>
+    <t>CEW201</t>
+  </si>
+  <si>
+    <t>CES210</t>
+  </si>
+  <si>
+    <t>CEH410</t>
   </si>
   <si>
     <t>Vigitant</t>
   </si>
   <si>
-    <t>HDM809</t>
-  </si>
-  <si>
-    <t>Sidewinder</t>
-  </si>
-  <si>
-    <t>HGM001</t>
-  </si>
-  <si>
-    <t>GameMaster</t>
-  </si>
-  <si>
-    <t>HDM819</t>
-  </si>
-  <si>
-    <t>Vindicator</t>
-  </si>
-  <si>
-    <t>HDH820</t>
-  </si>
-  <si>
-    <t>Guardian</t>
-  </si>
-  <si>
-    <t>HDS818</t>
-  </si>
-  <si>
-    <t>Centurion</t>
-  </si>
-  <si>
-    <t>HGS001</t>
-  </si>
-  <si>
-    <t>Valkyrie</t>
-  </si>
-  <si>
-    <t>HSM002</t>
-  </si>
-  <si>
-    <t>Sting X</t>
-  </si>
-  <si>
-    <t>HGH003</t>
-  </si>
-  <si>
-    <t>Aerene</t>
-  </si>
-  <si>
-    <t>HSS001</t>
-  </si>
-  <si>
-    <t>Gamma Ray</t>
-  </si>
-  <si>
-    <t>HGM002</t>
-  </si>
-  <si>
-    <t>Luciferiel</t>
-  </si>
-  <si>
-    <t>HSH003</t>
-  </si>
-  <si>
-    <t>CEJ606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jaywalker</t>
-  </si>
-  <si>
-    <t>CEM709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Hellfire</t>
-  </si>
-  <si>
-    <t>CES707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Spazmok</t>
-  </si>
-  <si>
-    <t>CEM806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ballistika</t>
-  </si>
-  <si>
-    <t>CEM412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mekhi</t>
-  </si>
-  <si>
-    <t>CES301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Frontliner</t>
-  </si>
-  <si>
-    <t>CES003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Rushnik</t>
-  </si>
-  <si>
-    <t>CNM002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Trooper</t>
-  </si>
-  <si>
-    <t>CEH007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Boomrocker</t>
-  </si>
-  <si>
-    <t>CES008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Stallion</t>
-  </si>
-  <si>
-    <t>CNM007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Stark</t>
-  </si>
-  <si>
-    <t>CEH009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Haskell</t>
-  </si>
-  <si>
-    <t>CES103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Scootwing</t>
-  </si>
-  <si>
-    <t>CEM571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Davenstar</t>
-  </si>
-  <si>
-    <t>CEM803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Zeeker</t>
-  </si>
-  <si>
-    <t>CEH737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Blitzker</t>
-  </si>
-  <si>
-    <t>CEH807</t>
-  </si>
-  <si>
-    <t>CEW201</t>
-  </si>
-  <si>
-    <t>CES210</t>
-  </si>
-  <si>
-    <t>CEH410</t>
-  </si>
-  <si>
     <t>CEM310</t>
   </si>
   <si>
@@ -421,6 +383,9 @@
     <t>CSH003</t>
   </si>
   <si>
+    <t>CSH030</t>
+  </si>
+  <si>
     <t>CNP010</t>
   </si>
   <si>
@@ -478,6 +443,9 @@
     <t>AEH909</t>
   </si>
   <si>
+    <t>heavy</t>
+  </si>
+  <si>
     <t>AEH808</t>
   </si>
   <si>
@@ -520,105 +488,54 @@
     <t>ASH003</t>
   </si>
   <si>
-    <t>Big Mammoth</t>
-  </si>
-  <si>
     <t>LTJ606</t>
   </si>
   <si>
-    <t> Jaywalker</t>
-  </si>
-  <si>
     <t>LTN709</t>
   </si>
   <si>
-    <t> Hellfire</t>
-  </si>
-  <si>
     <t>LTS707</t>
   </si>
   <si>
-    <t> Spazmok</t>
-  </si>
-  <si>
     <t>LTN806</t>
   </si>
   <si>
-    <t> Ballistika</t>
-  </si>
-  <si>
     <t>LTN411</t>
   </si>
   <si>
-    <t> Mekhi</t>
-  </si>
-  <si>
     <t>LTS222</t>
   </si>
   <si>
-    <t> Frontliner</t>
-  </si>
-  <si>
     <t>LTS003</t>
   </si>
   <si>
-    <t> Rushnik</t>
-  </si>
-  <si>
     <t>LTM002</t>
   </si>
   <si>
-    <t> Trooper</t>
-  </si>
-  <si>
     <t>LTH009</t>
   </si>
   <si>
-    <t> Boomrocker</t>
-  </si>
-  <si>
     <t>LTS008</t>
   </si>
   <si>
-    <t> Stallion</t>
-  </si>
-  <si>
     <t>LTM007</t>
   </si>
   <si>
-    <t> Stark</t>
-  </si>
-  <si>
     <t>LTH019</t>
   </si>
   <si>
-    <t> Haskell</t>
-  </si>
-  <si>
     <t>LTS134</t>
   </si>
   <si>
-    <t> Scootwing</t>
-  </si>
-  <si>
     <t>LTN543</t>
   </si>
   <si>
-    <t> Davenstar</t>
-  </si>
-  <si>
     <t>LTN803</t>
   </si>
   <si>
-    <t> Zeeker</t>
-  </si>
-  <si>
     <t>LTH712</t>
   </si>
   <si>
-    <t> Blitzker</t>
-  </si>
-  <si>
     <t>LTP007</t>
   </si>
   <si>
@@ -631,12 +548,12 @@
     <t>LTS719</t>
   </si>
   <si>
+    <t>LTM819</t>
+  </si>
+  <si>
     <t>LTH919</t>
   </si>
   <si>
-    <t>LTM819</t>
-  </si>
-  <si>
     <t>LGM001</t>
   </si>
   <si>
@@ -661,52 +578,58 @@
     <t>LSS001</t>
   </si>
   <si>
+    <t>LSM002</t>
+  </si>
+  <si>
+    <t>LSH003</t>
+  </si>
+  <si>
     <t>PBS003</t>
   </si>
   <si>
-    <t>  SonicBoomer</t>
+    <t>SonicBoomer</t>
   </si>
   <si>
     <t>PRC009</t>
   </si>
   <si>
-    <t>  LaserWing</t>
+    <t>LaserWing</t>
   </si>
   <si>
     <t>PBM002</t>
   </si>
   <si>
-    <t>  Booster</t>
+    <t>Booster</t>
   </si>
   <si>
     <t>PRC008</t>
   </si>
   <si>
-    <t>  Tomahawk-S</t>
+    <t>Tomahawk-S</t>
   </si>
   <si>
     <t>PRC012</t>
   </si>
   <si>
-    <t>  MissileLauncher</t>
+    <t>MissileLauncher</t>
   </si>
   <si>
     <t>PBS004</t>
   </si>
   <si>
-    <t>  Dispenser</t>
+    <t>Dispenser</t>
   </si>
   <si>
     <t>PSD005</t>
   </si>
   <si>
-    <t>  StormMover</t>
+    <t>StormMover</t>
   </si>
   <si>
     <t>PSD004</t>
   </si>
   <si>
-    <t>  Sentinel</t>
+    <t>Sentinel</t>
   </si>
   <si>
     <t>PRC017</t>
@@ -801,15 +724,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -822,33 +771,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,9 +831,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,30 +855,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,23 +884,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,28 +894,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,7 +908,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +950,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +986,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,43 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,97 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,17 +1102,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,9 +1128,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,177 +1199,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,7 +1407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1524,9 +1452,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1559,9 +1487,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1736,13 +1664,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W149"/>
+  <dimension ref="A1:W152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:W149"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.2761904761905" customWidth="1"/>
+    <col min="3" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="11.247619047619" customWidth="1"/>
+    <col min="21" max="21" width="11.9428571428571" customWidth="1"/>
+    <col min="22" max="1025" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -2140,7 +2076,7 @@
         <v>45</v>
       </c>
       <c r="N6" s="1">
-        <v>1560</v>
+        <v>1360</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2211,7 +2147,7 @@
         <v>77</v>
       </c>
       <c r="N7" s="1">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2282,7 +2218,7 @@
         <v>109</v>
       </c>
       <c r="N8" s="1">
-        <v>1720</v>
+        <v>1520</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2323,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1406</v>
+        <v>1200</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2353,7 +2289,7 @@
         <v>115</v>
       </c>
       <c r="N9" s="1">
-        <v>2160</v>
+        <v>1680</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2424,7 +2360,7 @@
         <v>102</v>
       </c>
       <c r="N10" s="1">
-        <v>1360</v>
+        <v>1160</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2471,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>232</v>
@@ -2495,7 +2431,7 @@
         <v>102</v>
       </c>
       <c r="N11" s="1">
-        <v>1680</v>
+        <v>1480</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2536,16 +2472,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1257</v>
+        <v>1300</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>368</v>
@@ -2566,7 +2502,7 @@
         <v>115</v>
       </c>
       <c r="N12" s="1">
-        <v>1720</v>
+        <v>1520</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2613,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>960</v>
+        <v>1630</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
         <v>1584</v>
@@ -2637,7 +2573,7 @@
         <v>58</v>
       </c>
       <c r="N13" s="1">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2684,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>960</v>
+        <v>1635</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2708,7 +2644,7 @@
         <v>128</v>
       </c>
       <c r="N14" s="1">
-        <v>2720</v>
+        <v>1600</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2755,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>656</v>
@@ -2779,7 +2715,7 @@
         <v>102</v>
       </c>
       <c r="N15" s="1">
-        <v>1480</v>
+        <v>1350</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2820,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2829,13 +2765,13 @@
         <v>2400</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="I16" s="1">
-        <v>3800</v>
+        <v>4360</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2850,7 +2786,7 @@
         <v>122</v>
       </c>
       <c r="N16" s="1">
-        <v>2400</v>
+        <v>1850</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2897,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2921,7 +2857,7 @@
         <v>166</v>
       </c>
       <c r="N17" s="1">
-        <v>2560</v>
+        <v>1550</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2962,22 +2898,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4580</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2989,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3033,22 +2969,22 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6081</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3060,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3089,8 +3025,8 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>32</v>
+      <c r="W19" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3104,22 +3040,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3131,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3175,22 +3111,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3202,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3232,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3246,22 +3182,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2660</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6380</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3273,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3302,8 +3238,8 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>32</v>
+      <c r="W22" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3317,22 +3253,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3344,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -3388,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3415,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3459,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5321</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3486,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -3530,22 +3466,22 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3557,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3586,8 +3522,8 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>32</v>
+      <c r="W26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3601,22 +3537,22 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4350</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3628,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -3658,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3672,22 +3608,22 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3699,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3729,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3743,22 +3679,22 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4955</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3770,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3814,22 +3750,22 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3841,10 +3777,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3870,8 +3806,8 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>32</v>
+      <c r="W30" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3885,22 +3821,22 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3912,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -3942,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3956,22 +3892,22 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3983,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4021,28 +3957,28 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4054,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4084,15 +4020,15 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4163,7 +4099,7 @@
         <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4231,10 +4167,10 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4302,10 +4238,10 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4373,10 +4309,10 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4385,7 +4321,7 @@
         <v>800</v>
       </c>
       <c r="E38" s="1">
-        <v>2050</v>
+        <v>2150</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4403,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>969</v>
+        <v>669</v>
       </c>
       <c r="L38">
         <v>314</v>
@@ -4444,10 +4380,10 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4456,7 +4392,7 @@
         <v>854</v>
       </c>
       <c r="E39" s="1">
-        <v>2047</v>
+        <v>2147</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4515,10 +4451,10 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4527,7 +4463,7 @@
         <v>832</v>
       </c>
       <c r="E40" s="1">
-        <v>2186</v>
+        <v>2286</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4586,10 +4522,10 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4598,7 +4534,7 @@
         <v>887</v>
       </c>
       <c r="E41" s="1">
-        <v>1980</v>
+        <v>2080</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4657,10 +4593,10 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4669,7 +4605,7 @@
         <v>942</v>
       </c>
       <c r="E42" s="1">
-        <v>2161</v>
+        <v>2261</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4728,10 +4664,10 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4740,7 +4676,7 @@
         <v>732</v>
       </c>
       <c r="E43" s="1">
-        <v>2116</v>
+        <v>2216</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4799,10 +4735,10 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4811,7 +4747,7 @@
         <v>806</v>
       </c>
       <c r="E44" s="1">
-        <v>2266</v>
+        <v>2366</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4870,10 +4806,10 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4882,7 +4818,7 @@
         <v>969</v>
       </c>
       <c r="E45" s="1">
-        <v>2319</v>
+        <v>2419</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4941,10 +4877,10 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4953,7 +4889,7 @@
         <v>920</v>
       </c>
       <c r="E46" s="1">
-        <v>2408</v>
+        <v>2508</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5012,10 +4948,10 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5024,7 +4960,7 @@
         <v>1258</v>
       </c>
       <c r="E47" s="1">
-        <v>2494</v>
+        <v>2594</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5083,10 +5019,10 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5154,10 +5090,10 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -5166,7 +5102,7 @@
         <v>1124</v>
       </c>
       <c r="E49" s="1">
-        <v>2678</v>
+        <v>2778</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5225,19 +5161,19 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3126</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5246,22 +5182,22 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>8790</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>35468</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -5291,12 +5227,12 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
         <v>63</v>
@@ -5305,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>2506</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5317,22 +5253,22 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>6390</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>25477</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -5367,7 +5303,7 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -5376,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5388,22 +5324,22 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>4980</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>21260</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -5433,24 +5369,24 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5459,22 +5395,22 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>38625</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -5504,12 +5440,12 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
         <v>69</v>
@@ -5518,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5530,22 +5466,22 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>7450</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>25890</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -5580,7 +5516,7 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
@@ -5589,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5601,22 +5537,22 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -5651,7 +5587,7 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>73</v>
@@ -5660,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5672,22 +5608,22 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>7850</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>27480</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
+        <v>750</v>
+      </c>
+      <c r="M56" s="2">
+        <v>140</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -5722,7 +5658,7 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
@@ -5731,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5743,22 +5679,22 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>8358</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>33520</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -5788,12 +5724,12 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
         <v>77</v>
@@ -5802,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5814,22 +5750,22 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>6015</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -5859,12 +5795,12 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
         <v>79</v>
@@ -5873,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5885,22 +5821,22 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4825</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>20500</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -5930,12 +5866,12 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
@@ -5944,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5956,22 +5892,22 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -6006,7 +5942,7 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
         <v>85</v>
@@ -6015,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -6027,22 +5963,22 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -6072,12 +6008,12 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
         <v>87</v>
@@ -6086,10 +6022,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -6098,22 +6034,22 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>6310</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>23650</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -6148,7 +6084,7 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>83</v>
@@ -6157,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6169,22 +6105,22 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>8208</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>31450</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -6214,24 +6150,24 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -6240,22 +6176,22 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -6285,24 +6221,24 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>588</v>
+        <v>860</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6310,35 +6246,35 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="1">
-        <v>4734</v>
-      </c>
-      <c r="I65" s="1">
-        <v>14550</v>
+      <c r="H65">
+        <v>6990</v>
+      </c>
+      <c r="I65">
+        <v>25500</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="M65">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -6356,21 +6292,21 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6382,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>3350</v>
+        <v>4734</v>
       </c>
       <c r="I66" s="1">
-        <v>13287</v>
+        <v>14550</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -6397,19 +6333,19 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="P66">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q66">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -6432,16 +6368,16 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6453,10 +6389,10 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>2654</v>
+        <v>3350</v>
       </c>
       <c r="I67" s="1">
-        <v>13282</v>
+        <v>13287</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -6468,19 +6404,19 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P67">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="Q67">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -6503,16 +6439,16 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>617</v>
+        <v>517</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6524,10 +6460,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <v>3934</v>
+        <v>2654</v>
       </c>
       <c r="I68" s="1">
-        <v>15283</v>
+        <v>13282</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -6539,19 +6475,19 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="P68">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="Q68">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -6569,21 +6505,21 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>450</v>
+        <v>617</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6595,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="1">
-        <v>2486</v>
+        <v>3934</v>
       </c>
       <c r="I69" s="1">
-        <v>13298</v>
+        <v>15283</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6610,19 +6546,19 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="P69">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q69">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -6640,21 +6576,21 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6666,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>3430</v>
+        <v>2486</v>
       </c>
       <c r="I70" s="1">
-        <v>15296</v>
+        <v>13298</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -6681,19 +6617,19 @@
         <v>0</v>
       </c>
       <c r="M70">
+        <v>77</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
         <v>102</v>
       </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>155</v>
-      </c>
       <c r="P70">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q70">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -6711,21 +6647,21 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6737,10 +6673,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>2702</v>
+        <v>3430</v>
       </c>
       <c r="I71" s="1">
-        <v>13295</v>
+        <v>15296</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -6752,19 +6688,19 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="P71">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q71">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -6782,21 +6718,21 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6808,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="1">
-        <v>3910</v>
+        <v>2702</v>
       </c>
       <c r="I72" s="1">
-        <v>15297</v>
+        <v>13295</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -6823,19 +6759,19 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="P72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -6853,21 +6789,21 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6879,10 +6815,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="1">
-        <v>4902</v>
+        <v>3910</v>
       </c>
       <c r="I73" s="1">
-        <v>18295</v>
+        <v>15297</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -6894,19 +6830,19 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q73">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -6924,21 +6860,21 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>359</v>
+        <v>532</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6950,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="1">
-        <v>2486</v>
+        <v>4902</v>
       </c>
       <c r="I74" s="1">
-        <v>13290</v>
+        <v>18295</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -6965,19 +6901,19 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="P74">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q74">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6995,21 +6931,21 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>540</v>
+        <v>359</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -7021,10 +6957,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>4222</v>
+        <v>2486</v>
       </c>
       <c r="I75" s="1">
-        <v>15291</v>
+        <v>13290</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -7036,51 +6972,51 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="P75">
+        <v>40</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
         <v>25</v>
-      </c>
-      <c r="Q75">
-        <v>12</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>640</v>
+        <v>540</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7092,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="H76" s="1">
-        <v>4854</v>
+        <v>4222</v>
       </c>
       <c r="I76" s="1">
-        <v>18293</v>
+        <v>15291</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -7107,51 +7043,51 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="P76">
+        <v>25</v>
+      </c>
+      <c r="Q76">
+        <v>12</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
         <v>32</v>
-      </c>
-      <c r="Q76">
-        <v>22</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>517</v>
+        <v>640</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7163,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="H77" s="1">
-        <v>2726</v>
+        <v>4854</v>
       </c>
       <c r="I77" s="1">
-        <v>13288</v>
+        <v>18293</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -7178,19 +7114,19 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="P77">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q77">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -7208,21 +7144,21 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>621</v>
+        <v>517</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -7234,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="H78" s="1">
-        <v>4630</v>
+        <v>2726</v>
       </c>
       <c r="I78" s="1">
-        <v>15287</v>
+        <v>13288</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7249,19 +7185,19 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="P78">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="Q78">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -7279,21 +7215,21 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>517</v>
+        <v>621</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -7305,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="1">
-        <v>2885</v>
+        <v>4630</v>
       </c>
       <c r="I79" s="1">
-        <v>14103</v>
+        <v>15287</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -7320,51 +7256,51 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P79">
+        <v>52</v>
+      </c>
+      <c r="Q79">
+        <v>10</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
         <v>32</v>
-      </c>
-      <c r="Q79">
-        <v>31</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -7376,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="1">
-        <v>4926</v>
+        <v>2885</v>
       </c>
       <c r="I80" s="1">
-        <v>18283</v>
+        <v>14103</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -7391,19 +7327,19 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="P80">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q80">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -7421,21 +7357,21 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -7446,11 +7382,11 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
+      <c r="H81" s="1">
+        <v>4926</v>
+      </c>
+      <c r="I81" s="1">
+        <v>18283</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -7462,19 +7398,19 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -7492,21 +7428,21 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7518,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3910</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -7533,19 +7469,19 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -7568,16 +7504,16 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7589,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>6012</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>22570</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -7604,19 +7540,19 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -7634,21 +7570,21 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7660,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>5878</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>20280</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -7675,19 +7611,19 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -7705,21 +7641,21 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7731,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>4534</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>15285</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -7746,19 +7682,19 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -7781,16 +7717,16 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7802,10 +7738,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2410</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>12210</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -7817,19 +7753,19 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -7847,21 +7783,21 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7873,10 +7809,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>3815</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -7888,19 +7824,19 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -7923,16 +7859,16 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7944,10 +7880,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -7959,19 +7895,19 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -7994,16 +7930,16 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -8015,10 +7951,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4355</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>17056</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -8030,19 +7966,19 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -8065,16 +8001,16 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -8086,10 +8022,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>5229</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>19144</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -8101,19 +8037,19 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -8131,21 +8067,21 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -8157,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3115</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>13120</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -8172,19 +8108,19 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -8202,21 +8138,21 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -8228,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -8243,19 +8179,19 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -8273,21 +8209,21 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -8299,10 +8235,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>15310</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -8314,19 +8250,19 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -8349,16 +8285,16 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -8370,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>5560</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -8385,19 +8321,19 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -8415,21 +8351,21 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -8441,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -8456,19 +8392,19 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -8486,21 +8422,21 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -8512,10 +8448,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -8527,19 +8463,19 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -8562,16 +8498,16 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -8582,14 +8518,14 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97" s="1">
-        <v>6120</v>
-      </c>
-      <c r="I97" s="1">
-        <v>22975</v>
+      <c r="H97">
+        <v>6000</v>
+      </c>
+      <c r="I97">
+        <v>20000</v>
       </c>
       <c r="J97">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -8598,51 +8534,51 @@
         <v>0</v>
       </c>
       <c r="M97">
+        <v>124</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>175</v>
+      </c>
+      <c r="P97">
+        <v>28</v>
+      </c>
+      <c r="Q97">
+        <v>46</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
         <v>43</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>60000</v>
-      </c>
-      <c r="S97" s="1">
-        <v>92800</v>
-      </c>
-      <c r="T97">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <v>0</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="W97" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -8654,13 +8590,13 @@
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <v>4300</v>
+        <v>6120</v>
       </c>
       <c r="I98" s="1">
-        <v>19981</v>
+        <v>22975</v>
       </c>
       <c r="J98">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -8669,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -8687,7 +8623,7 @@
         <v>60000</v>
       </c>
       <c r="S98" s="1">
-        <v>60800</v>
+        <v>92800</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -8704,16 +8640,16 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>649</v>
+        <v>738</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -8725,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <v>4540</v>
+        <v>4300</v>
       </c>
       <c r="I99" s="1">
-        <v>19970</v>
+        <v>19981</v>
       </c>
       <c r="J99">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -8740,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -8758,7 +8694,7 @@
         <v>60000</v>
       </c>
       <c r="S99" s="1">
-        <v>92800</v>
+        <v>60800</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -8775,16 +8711,16 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>763</v>
+        <v>645</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -8796,13 +8732,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <v>5780</v>
+        <v>4540</v>
       </c>
       <c r="I100" s="1">
-        <v>21469</v>
+        <v>19970</v>
       </c>
       <c r="J100">
-        <v>464</v>
+        <v>613</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -8811,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -8826,10 +8762,10 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>195000</v>
+        <v>60000</v>
       </c>
       <c r="S100" s="1">
-        <v>112000</v>
+        <v>92800</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -8841,21 +8777,21 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>600</v>
+        <v>763</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8867,13 +8803,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <v>4420</v>
+        <v>5780</v>
       </c>
       <c r="I101" s="1">
-        <v>19994</v>
+        <v>21469</v>
       </c>
       <c r="J101">
-        <v>601</v>
+        <v>464</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8882,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -8897,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>60000</v>
+        <v>195000</v>
       </c>
       <c r="S101" s="1">
-        <v>48000</v>
+        <v>112000</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -8912,21 +8848,21 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8938,13 +8874,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="1">
-        <v>5660</v>
+        <v>4420</v>
       </c>
       <c r="I102" s="1">
-        <v>21493</v>
+        <v>19994</v>
       </c>
       <c r="J102">
-        <v>453</v>
+        <v>601</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -8953,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -8968,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>195000</v>
+        <v>60000</v>
       </c>
       <c r="S102" s="1">
-        <v>67200</v>
+        <v>48000</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -8983,21 +8919,21 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -9009,13 +8945,13 @@
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <v>4420</v>
+        <v>5660</v>
       </c>
       <c r="I103" s="1">
-        <v>19992</v>
+        <v>21493</v>
       </c>
       <c r="J103">
-        <v>600</v>
+        <v>453</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -9024,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -9039,10 +8975,10 @@
         <v>0</v>
       </c>
       <c r="R103">
-        <v>60000</v>
+        <v>195000</v>
       </c>
       <c r="S103" s="1">
-        <v>52857</v>
+        <v>67200</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -9054,21 +8990,21 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>732</v>
+        <v>665</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -9080,13 +9016,13 @@
         <v>0</v>
       </c>
       <c r="H104" s="1">
-        <v>6140</v>
+        <v>4420</v>
       </c>
       <c r="I104" s="1">
-        <v>21496</v>
+        <v>19992</v>
       </c>
       <c r="J104">
-        <v>454</v>
+        <v>600</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -9095,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -9110,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="R104">
-        <v>195000</v>
+        <v>60000</v>
       </c>
       <c r="S104" s="1">
-        <v>60800</v>
+        <v>52857</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -9125,21 +9061,21 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>818</v>
+        <v>650</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -9151,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="H105" s="1">
-        <v>7020</v>
+        <v>6140</v>
       </c>
       <c r="I105" s="1">
-        <v>22995</v>
+        <v>21496</v>
       </c>
       <c r="J105">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -9166,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -9181,10 +9117,10 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>390000</v>
+        <v>195000</v>
       </c>
       <c r="S105" s="1">
-        <v>70400</v>
+        <v>64000</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -9196,21 +9132,21 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>565</v>
+        <v>818</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -9222,13 +9158,13 @@
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>4420</v>
+        <v>7020</v>
       </c>
       <c r="I106" s="1">
-        <v>19985</v>
+        <v>22995</v>
       </c>
       <c r="J106">
-        <v>603</v>
+        <v>415</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -9237,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -9252,10 +9188,10 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <v>60000</v>
+        <v>390000</v>
       </c>
       <c r="S106" s="1">
-        <v>54400</v>
+        <v>70400</v>
       </c>
       <c r="T106">
         <v>0</v>
@@ -9267,21 +9203,21 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>665</v>
+        <v>565</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -9293,13 +9229,13 @@
         <v>0</v>
       </c>
       <c r="H107" s="1">
-        <v>5780</v>
+        <v>4420</v>
       </c>
       <c r="I107" s="1">
-        <v>21487</v>
+        <v>19985</v>
       </c>
       <c r="J107">
-        <v>456</v>
+        <v>603</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -9308,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -9323,10 +9259,10 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>195000</v>
+        <v>60000</v>
       </c>
       <c r="S107" s="1">
-        <v>64000</v>
+        <v>54400</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -9338,21 +9274,21 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>765</v>
+        <v>685</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -9364,13 +9300,13 @@
         <v>0</v>
       </c>
       <c r="H108" s="1">
-        <v>7020</v>
+        <v>5780</v>
       </c>
       <c r="I108" s="1">
-        <v>22988</v>
+        <v>21487</v>
       </c>
       <c r="J108">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -9379,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -9394,10 +9330,10 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <v>390000</v>
+        <v>195000</v>
       </c>
       <c r="S108" s="1">
-        <v>67200</v>
+        <v>64000</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -9409,21 +9345,21 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>677</v>
+        <v>765</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -9435,13 +9371,13 @@
         <v>0</v>
       </c>
       <c r="H109" s="1">
-        <v>4540</v>
+        <v>7020</v>
       </c>
       <c r="I109" s="1">
-        <v>19976</v>
+        <v>22988</v>
       </c>
       <c r="J109">
-        <v>609</v>
+        <v>417</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -9450,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -9465,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="R109">
-        <v>60000</v>
+        <v>390000</v>
       </c>
       <c r="S109" s="1">
-        <v>73600</v>
+        <v>67200</v>
       </c>
       <c r="T109">
         <v>0</v>
@@ -9480,21 +9416,21 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>748</v>
+        <v>677</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -9506,13 +9442,13 @@
         <v>0</v>
       </c>
       <c r="H110" s="1">
-        <v>5660</v>
+        <v>4540</v>
       </c>
       <c r="I110" s="1">
-        <v>21481</v>
+        <v>19976</v>
       </c>
       <c r="J110">
-        <v>462</v>
+        <v>609</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -9521,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -9536,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="R110">
-        <v>195000</v>
+        <v>60000</v>
       </c>
       <c r="S110" s="1">
-        <v>64000</v>
+        <v>73600</v>
       </c>
       <c r="T110">
         <v>0</v>
@@ -9551,21 +9487,21 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -9577,13 +9513,13 @@
         <v>0</v>
       </c>
       <c r="H111" s="1">
-        <v>4180</v>
+        <v>5660</v>
       </c>
       <c r="I111" s="1">
-        <v>21553</v>
+        <v>21481</v>
       </c>
       <c r="J111">
-        <v>611</v>
+        <v>462</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -9592,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -9607,10 +9543,10 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <v>60000</v>
+        <v>195000</v>
       </c>
       <c r="S111" s="1">
-        <v>80000</v>
+        <v>64000</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -9622,21 +9558,21 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>811</v>
+        <v>664</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9648,13 +9584,13 @@
         <v>0</v>
       </c>
       <c r="H112" s="1">
-        <v>6900</v>
+        <v>4180</v>
       </c>
       <c r="I112" s="1">
-        <v>22972</v>
+        <v>21553</v>
       </c>
       <c r="J112">
-        <v>426</v>
+        <v>611</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -9663,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -9678,10 +9614,10 @@
         <v>0</v>
       </c>
       <c r="R112">
-        <v>390000</v>
+        <v>60000</v>
       </c>
       <c r="S112" s="1">
-        <v>76800</v>
+        <v>80000</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -9693,21 +9629,21 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:23">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9718,14 +9654,14 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
+      <c r="H113" s="1">
+        <v>6900</v>
+      </c>
+      <c r="I113" s="1">
+        <v>22972</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -9734,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -9749,10 +9685,10 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
+        <v>390000</v>
+      </c>
+      <c r="S113" s="1">
+        <v>76800</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -9764,21 +9700,21 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:23">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -9790,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>20613</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -9805,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -9820,10 +9756,10 @@
         <v>0</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="S114">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="T114">
         <v>0</v>
@@ -9840,16 +9776,16 @@
     </row>
     <row r="115" spans="1:23">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9861,13 +9797,13 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>25018</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -9876,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -9890,11 +9826,11 @@
       <c r="Q115">
         <v>0</v>
       </c>
-      <c r="R115">
-        <v>0</v>
+      <c r="R115" s="4">
+        <v>390000</v>
       </c>
       <c r="S115">
-        <v>0</v>
+        <v>89600</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -9906,21 +9842,21 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:23">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -9932,13 +9868,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>5660</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>21476</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -9947,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -9962,10 +9898,10 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="S116">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -9982,16 +9918,16 @@
     </row>
     <row r="117" spans="1:23">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B117" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -10003,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>4210</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>18665</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -10018,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -10033,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>93300</v>
       </c>
       <c r="T117">
         <v>0</v>
@@ -10048,21 +9984,21 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:23">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -10074,13 +10010,13 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>5810</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>21230</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -10089,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -10104,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="R118">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -10124,16 +10060,16 @@
     </row>
     <row r="119" spans="1:23">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -10145,13 +10081,13 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>26208</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -10160,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -10174,11 +10110,11 @@
       <c r="Q119">
         <v>0</v>
       </c>
-      <c r="R119">
-        <v>0</v>
+      <c r="R119" s="4">
+        <v>390000</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -10190,21 +10126,21 @@
         <v>0</v>
       </c>
       <c r="W119" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:23">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -10216,13 +10152,13 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -10231,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -10246,10 +10182,10 @@
         <v>0</v>
       </c>
       <c r="R120">
-        <v>0</v>
+        <v>390000</v>
       </c>
       <c r="S120">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="T120">
         <v>0</v>
@@ -10266,16 +10202,16 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -10287,13 +10223,13 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>22699</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -10302,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -10317,10 +10253,10 @@
         <v>0</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>215000</v>
       </c>
       <c r="S121">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -10337,16 +10273,16 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -10358,13 +10294,13 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>7380</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>24550</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -10373,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -10388,10 +10324,10 @@
         <v>0</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="S122">
-        <v>0</v>
+        <v>90500</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -10403,21 +10339,21 @@
         <v>0</v>
       </c>
       <c r="W122" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:23">
       <c r="A123" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -10429,13 +10365,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>4820</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>19392</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -10444,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -10459,10 +10395,10 @@
         <v>0</v>
       </c>
       <c r="R123">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>94500</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -10474,21 +10410,21 @@
         <v>0</v>
       </c>
       <c r="W123" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:23">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -10500,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>4380</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -10515,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -10530,10 +10466,10 @@
         <v>0</v>
       </c>
       <c r="R124">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="S124">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -10545,21 +10481,21 @@
         <v>0</v>
       </c>
       <c r="W124" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:23">
       <c r="A125" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -10571,13 +10507,13 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>21546</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -10586,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -10601,10 +10537,10 @@
         <v>0</v>
       </c>
       <c r="R125">
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="S125">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T125">
         <v>0</v>
@@ -10621,16 +10557,16 @@
     </row>
     <row r="126" spans="1:23">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -10642,13 +10578,13 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>24511</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -10657,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -10672,10 +10608,10 @@
         <v>0</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>380000</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -10687,21 +10623,21 @@
         <v>0</v>
       </c>
       <c r="W126" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:23">
       <c r="A127" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>78</v>
+        <v>620</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -10712,14 +10648,14 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127" s="1">
-        <v>1230</v>
-      </c>
-      <c r="I127" s="1">
-        <v>5030</v>
+      <c r="H127">
+        <v>4350</v>
+      </c>
+      <c r="I127">
+        <v>19000</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -10728,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -10743,36 +10679,36 @@
         <v>0</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>93300</v>
       </c>
       <c r="T127">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="U127">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="V127">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="W127" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:23">
       <c r="A128" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>80</v>
+        <v>835</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -10783,14 +10719,14 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" s="1">
-        <v>1650</v>
-      </c>
-      <c r="I128" s="1">
-        <v>5190</v>
+      <c r="H128">
+        <v>6000</v>
+      </c>
+      <c r="I128">
+        <v>22000</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -10799,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -10814,19 +10750,19 @@
         <v>0</v>
       </c>
       <c r="R128">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="S128">
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="T128">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="U128">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="V128">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="W128" t="s">
         <v>32</v>
@@ -10834,16 +10770,16 @@
     </row>
     <row r="129" spans="1:23">
       <c r="A129" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>81</v>
+        <v>880</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -10854,14 +10790,14 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129" s="1">
-        <v>1450</v>
-      </c>
-      <c r="I129" s="1">
-        <v>5100</v>
+      <c r="H129">
+        <v>8000</v>
+      </c>
+      <c r="I129">
+        <v>25650</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -10870,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -10885,36 +10821,36 @@
         <v>0</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="T129">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="U129">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="V129">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="W129" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:23">
       <c r="A130" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -10926,10 +10862,10 @@
         <v>0</v>
       </c>
       <c r="H130" s="1">
-        <v>1650</v>
+        <v>1230</v>
       </c>
       <c r="I130" s="1">
-        <v>5140</v>
+        <v>5030</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -10941,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -10962,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="T130">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="U130">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V130">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="W130" t="s">
         <v>32</v>
@@ -10976,16 +10912,16 @@
     </row>
     <row r="131" spans="1:23">
       <c r="A131" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -10997,10 +10933,10 @@
         <v>0</v>
       </c>
       <c r="H131" s="1">
-        <v>1620</v>
+        <v>1650</v>
       </c>
       <c r="I131" s="1">
-        <v>5120</v>
+        <v>5190</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -11012,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -11033,13 +10969,13 @@
         <v>0</v>
       </c>
       <c r="T131">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="U131">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="V131">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="W131" t="s">
         <v>32</v>
@@ -11047,16 +10983,16 @@
     </row>
     <row r="132" spans="1:23">
       <c r="A132" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -11068,10 +11004,10 @@
         <v>0</v>
       </c>
       <c r="H132" s="1">
-        <v>1420</v>
+        <v>1450</v>
       </c>
       <c r="I132" s="1">
-        <v>5090</v>
+        <v>5100</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -11083,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -11104,13 +11040,13 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="U132">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="V132">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="W132" t="s">
         <v>32</v>
@@ -11118,16 +11054,16 @@
     </row>
     <row r="133" spans="1:23">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -11139,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="H133" s="1">
-        <v>1570</v>
+        <v>1650</v>
       </c>
       <c r="I133" s="1">
-        <v>5110</v>
+        <v>5140</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -11154,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -11175,13 +11111,13 @@
         <v>0</v>
       </c>
       <c r="T133">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="U133">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="V133">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="W133" t="s">
         <v>32</v>
@@ -11189,16 +11125,16 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -11210,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="H134" s="1">
-        <v>1230</v>
+        <v>1620</v>
       </c>
       <c r="I134" s="1">
-        <v>5050</v>
+        <v>5120</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -11225,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -11246,13 +11182,13 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>533</v>
+        <v>440</v>
       </c>
       <c r="U134">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="V134">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="W134" t="s">
         <v>32</v>
@@ -11260,16 +11196,16 @@
     </row>
     <row r="135" spans="1:23">
       <c r="A135" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -11280,11 +11216,11 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
+      <c r="H135" s="1">
+        <v>1420</v>
+      </c>
+      <c r="I135" s="1">
+        <v>5090</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -11296,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -11317,13 +11253,13 @@
         <v>0</v>
       </c>
       <c r="T135">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="U135">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="V135">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W135" t="s">
         <v>32</v>
@@ -11331,16 +11267,16 @@
     </row>
     <row r="136" spans="1:23">
       <c r="A136" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -11351,11 +11287,11 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
+      <c r="H136" s="1">
+        <v>1570</v>
+      </c>
+      <c r="I136" s="1">
+        <v>5110</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -11367,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -11388,13 +11324,13 @@
         <v>0</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="V136">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="W136" t="s">
         <v>32</v>
@@ -11402,16 +11338,16 @@
     </row>
     <row r="137" spans="1:23">
       <c r="A137" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -11422,11 +11358,11 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
+      <c r="H137" s="1">
+        <v>1230</v>
+      </c>
+      <c r="I137" s="1">
+        <v>5050</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -11438,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -11459,13 +11395,13 @@
         <v>0</v>
       </c>
       <c r="T137">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="U137">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="V137">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="W137" t="s">
         <v>32</v>
@@ -11473,16 +11409,16 @@
     </row>
     <row r="138" spans="1:23">
       <c r="A138" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -11494,10 +11430,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>5165</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -11509,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -11530,13 +11466,13 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="U138">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="V138">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="W138" t="s">
         <v>32</v>
@@ -11544,16 +11480,16 @@
     </row>
     <row r="139" spans="1:23">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -11565,10 +11501,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>4980</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -11580,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -11601,13 +11537,13 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="U139">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="V139">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W139" t="s">
         <v>32</v>
@@ -11615,16 +11551,16 @@
     </row>
     <row r="140" spans="1:23">
       <c r="A140" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -11636,10 +11572,10 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -11651,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -11672,13 +11608,13 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="U140">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="V140">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="W140" t="s">
         <v>32</v>
@@ -11686,16 +11622,16 @@
     </row>
     <row r="141" spans="1:23">
       <c r="A141" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B141" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -11707,10 +11643,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -11722,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -11743,13 +11679,13 @@
         <v>0</v>
       </c>
       <c r="T141">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="U141">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="V141">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="W141" t="s">
         <v>32</v>
@@ -11757,10 +11693,10 @@
     </row>
     <row r="142" spans="1:23">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B142" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -11828,16 +11764,16 @@
     </row>
     <row r="143" spans="1:23">
       <c r="A143" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -11849,10 +11785,10 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1765</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>5396</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -11864,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -11885,13 +11821,13 @@
         <v>0</v>
       </c>
       <c r="T143">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="U143">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="V143">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="W143" t="s">
         <v>32</v>
@@ -11899,16 +11835,16 @@
     </row>
     <row r="144" spans="1:23">
       <c r="A144" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B144" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -11920,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>5450</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -11935,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -11956,13 +11892,13 @@
         <v>0</v>
       </c>
       <c r="T144">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="U144">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="V144">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W144" t="s">
         <v>32</v>
@@ -11970,16 +11906,16 @@
     </row>
     <row r="145" spans="1:23">
       <c r="A145" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -11991,10 +11927,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -12006,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -12027,13 +11963,13 @@
         <v>0</v>
       </c>
       <c r="T145">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="U145">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="V145">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W145" t="s">
         <v>32</v>
@@ -12041,16 +11977,16 @@
     </row>
     <row r="146" spans="1:23">
       <c r="A146" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B146" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -12062,10 +11998,10 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -12077,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -12098,13 +12034,13 @@
         <v>0</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U146">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="V146">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W146" t="s">
         <v>32</v>
@@ -12112,16 +12048,16 @@
     </row>
     <row r="147" spans="1:23">
       <c r="A147" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B147" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -12133,10 +12069,10 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>5180</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -12148,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -12169,13 +12105,13 @@
         <v>0</v>
       </c>
       <c r="T147">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="U147">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="V147">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W147" t="s">
         <v>32</v>
@@ -12183,16 +12119,16 @@
     </row>
     <row r="148" spans="1:23">
       <c r="A148" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B148" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -12204,10 +12140,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -12219,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -12240,13 +12176,13 @@
         <v>0</v>
       </c>
       <c r="T148">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="U148">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="V148">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="W148" t="s">
         <v>32</v>
@@ -12254,16 +12190,16 @@
     </row>
     <row r="149" spans="1:23">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -12275,10 +12211,10 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -12290,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -12311,20 +12247,234 @@
         <v>0</v>
       </c>
       <c r="T149">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="U149">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="V149">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="W149" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="150" spans="1:23">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+      <c r="B150" t="s">
+        <v>229</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>81</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1450</v>
+      </c>
+      <c r="I150">
+        <v>5210</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>53</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>488</v>
+      </c>
+      <c r="U150">
+        <v>388</v>
+      </c>
+      <c r="V150">
+        <v>300</v>
+      </c>
+      <c r="W150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151" t="s">
+        <v>230</v>
+      </c>
+      <c r="B151" t="s">
+        <v>231</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>40</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>1500</v>
+      </c>
+      <c r="I151">
+        <v>5250</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>45</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>490</v>
+      </c>
+      <c r="U151">
+        <v>370</v>
+      </c>
+      <c r="V151">
+        <v>270</v>
+      </c>
+      <c r="W151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
+      <c r="A152" t="s">
+        <v>232</v>
+      </c>
+      <c r="B152" t="s">
+        <v>233</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>320</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1310</v>
+      </c>
+      <c r="I152">
+        <v>4998</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>58</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>462</v>
+      </c>
+      <c r="U152">
+        <v>401</v>
+      </c>
+      <c r="V152">
+        <v>287</v>
+      </c>
+      <c r="W152" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/QuickSheet/ExcelSheet/MechPartSheet.xlsx
+++ b/Assets/QuickSheet/ExcelSheet/MechPartSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MechPartSheet" sheetId="1" r:id="rId1"/>
@@ -215,13 +215,13 @@
     <t>Aerobolt</t>
   </si>
   <si>
+    <t>HDH810</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
     <t>HDM809</t>
-  </si>
-  <si>
-    <t>Vigilant</t>
-  </si>
-  <si>
-    <t>HDH810</t>
   </si>
   <si>
     <t>Sidewinder</t>
@@ -724,10 +724,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -743,14 +743,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,9 +752,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,18 +773,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -803,7 +803,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,83 +893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,19 +908,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,73 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,6 +992,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1028,7 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,55 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,10 +1102,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1122,41 +1148,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,154 +1177,163 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:W152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
